--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2021/ifoCAst_error_tables_full_latest_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_full_since_2021/ifoCAst_error_tables_full_latest_since_2021_GVA.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1160831847685747</v>
+        <v>-0.1190471232299269</v>
       </c>
       <c r="C2">
-        <v>0.6189375236685952</v>
+        <v>0.6195113727863492</v>
       </c>
       <c r="D2">
-        <v>0.6191858183882823</v>
+        <v>0.6154840829883268</v>
       </c>
       <c r="E2">
-        <v>0.7868836117166772</v>
+        <v>0.784527936397632</v>
       </c>
       <c r="F2">
-        <v>0.7887211592171999</v>
+        <v>0.7858521091642482</v>
       </c>
       <c r="G2">
         <v>38</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1134900750447578</v>
+        <v>0.1110944575514639</v>
       </c>
       <c r="C3">
-        <v>0.7872767020133445</v>
+        <v>0.7457144292828872</v>
       </c>
       <c r="D3">
-        <v>0.9203498507728367</v>
+        <v>0.8675945666821148</v>
       </c>
       <c r="E3">
-        <v>0.959348659650305</v>
+        <v>0.9314475651812693</v>
       </c>
       <c r="F3">
-        <v>0.9567811220510151</v>
+        <v>0.9286440077257753</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.002439228017779637</v>
+        <v>0.04185042333638055</v>
       </c>
       <c r="C4">
-        <v>0.6858474325578426</v>
+        <v>0.6698713821298367</v>
       </c>
       <c r="D4">
-        <v>0.5689507352901887</v>
+        <v>0.5416986580756208</v>
       </c>
       <c r="E4">
-        <v>0.7542882309105643</v>
+        <v>0.7360018057556794</v>
       </c>
       <c r="F4">
-        <v>0.7612363627693856</v>
+        <v>0.7411185024187406</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
